--- a/ResultadoEleicoesDistritos/AVEIRO_VALE DE CAMBRA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_VALE DE CAMBRA.xlsx
@@ -597,64 +597,64 @@
         <v>5966</v>
       </c>
       <c r="H2" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I2" t="n">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="J2" t="n">
-        <v>2556</v>
+        <v>2493</v>
       </c>
       <c r="K2" t="n">
         <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S2" t="n">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="T2" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="U2" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V2" t="n">
-        <v>3845</v>
+        <v>3651</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>3707</v>
+        <v>3896</v>
       </c>
       <c r="Y2" t="n">
         <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
